--- a/exports/statistics/analysis_cortisol_raw_weekend.xlsx
+++ b/exports/statistics/analysis_cortisol_raw_weekend.xlsx
@@ -191,52 +191,52 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.681e+16</t>
-  </si>
-  <si>
-    <t>3.274e+18</t>
-  </si>
-  <si>
-    <t>2.517e+13</t>
-  </si>
-  <si>
-    <t>3.043e+07</t>
-  </si>
-  <si>
-    <t>1.964e+08</t>
-  </si>
-  <si>
-    <t>377.454</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1016.175</t>
-  </si>
-  <si>
-    <t>5.347e+07</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.224</t>
+    <t>2.402e+17</t>
+  </si>
+  <si>
+    <t>6.145e+21</t>
+  </si>
+  <si>
+    <t>7.863e+14</t>
+  </si>
+  <si>
+    <t>2.041e+08</t>
+  </si>
+  <si>
+    <t>5.777e+08</t>
+  </si>
+  <si>
+    <t>253.009</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>138.04</t>
+  </si>
+  <si>
+    <t>4.281e+06</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.26</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -706,10 +706,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.953</v>
+        <v>0.957</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.64</v>
+        <v>0.893</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
       <c r="D5">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0.785</v>
+        <v>0.973</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.949</v>
+        <v>0.975</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.984</v>
+        <v>0.977</v>
       </c>
       <c r="D8">
-        <v>0.947</v>
+        <v>0.88</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.951</v>
+        <v>0.966</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
       <c r="D10">
-        <v>0.591</v>
+        <v>0.78</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0.907</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.923</v>
+        <v>0.919</v>
       </c>
       <c r="D12">
-        <v>0.052</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>2.874</v>
+        <v>1.155</v>
       </c>
       <c r="D3">
-        <v>0.092</v>
+        <v>0.284</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>0.307</v>
+        <v>2.385</v>
       </c>
       <c r="D4">
-        <v>0.58</v>
+        <v>0.125</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -940,10 +940,10 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>1.197</v>
+        <v>1.539</v>
       </c>
       <c r="D5">
-        <v>0.276</v>
+        <v>0.217</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -957,10 +957,10 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>3.143</v>
+        <v>2.114</v>
       </c>
       <c r="D6">
-        <v>0.078</v>
+        <v>0.148</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -974,10 +974,10 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>0.369</v>
+        <v>0.291</v>
       </c>
       <c r="D7">
-        <v>0.544</v>
+        <v>0.591</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1050,25 +1050,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>57.197</v>
+        <v>56.892</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>57.197</v>
+        <v>56.892</v>
       </c>
       <c r="G3">
-        <v>0.491</v>
+        <v>0.628</v>
       </c>
       <c r="H3">
-        <v>0.484</v>
+        <v>0.429</v>
       </c>
       <c r="J3">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1079,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3998.086</v>
+        <v>3329.049</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="F4">
-        <v>999.522</v>
+        <v>832.2619999999999</v>
       </c>
       <c r="G4">
-        <v>53.014</v>
+        <v>55.672</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.252</v>
+        <v>0.285</v>
       </c>
       <c r="K4">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1123,25 +1123,25 @@
         <v>40</v>
       </c>
       <c r="C5">
-        <v>83.68600000000001</v>
+        <v>18.28</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="F5">
-        <v>20.922</v>
+        <v>4.57</v>
       </c>
       <c r="G5">
-        <v>1.11</v>
+        <v>0.306</v>
       </c>
       <c r="H5">
-        <v>0.351</v>
+        <v>0.874</v>
       </c>
       <c r="J5">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-10.392</v>
+        <v>-10.893</v>
       </c>
       <c r="I3">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -1250,7 +1250,7 @@
         <v>57</v>
       </c>
       <c r="O3">
-        <v>-0.722</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1276,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-11.123</v>
+        <v>-12.624</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
@@ -1297,7 +1297,7 @@
         <v>58</v>
       </c>
       <c r="O4">
-        <v>-1.086</v>
+        <v>-1.247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1323,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-9.18</v>
+        <v>-9.907999999999999</v>
       </c>
       <c r="I5">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
@@ -1344,7 +1344,7 @@
         <v>59</v>
       </c>
       <c r="O5">
-        <v>-0.998</v>
+        <v>-1.127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-6.741</v>
+        <v>-7.162</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
@@ -1391,7 +1391,7 @@
         <v>60</v>
       </c>
       <c r="O6">
-        <v>-0.745</v>
+        <v>-0.862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1417,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-7.097</v>
+        <v>-7.362</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -1438,7 +1438,7 @@
         <v>61</v>
       </c>
       <c r="O7">
-        <v>-0.411</v>
+        <v>-0.413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.237</v>
+        <v>-4.13</v>
       </c>
       <c r="I8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
@@ -1485,7 +1485,7 @@
         <v>62</v>
       </c>
       <c r="O8">
-        <v>-0.348</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1511,19 +1511,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.999</v>
+        <v>-0.97</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
       <c r="L9">
-        <v>0.342</v>
+        <v>0.371</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1532,7 +1532,7 @@
         <v>63</v>
       </c>
       <c r="O9">
-        <v>-0.092</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1558,19 +1558,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.952</v>
+        <v>0.539</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="L10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1579,7 +1579,7 @@
         <v>64</v>
       </c>
       <c r="O10">
-        <v>0.048</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1605,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.495</v>
+        <v>3.96</v>
       </c>
       <c r="I11">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -1626,7 +1626,7 @@
         <v>65</v>
       </c>
       <c r="O11">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6.849</v>
+        <v>6.394</v>
       </c>
       <c r="I12">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -1673,7 +1673,7 @@
         <v>66</v>
       </c>
       <c r="O12">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1699,22 +1699,22 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.706</v>
+        <v>-0.918</v>
       </c>
       <c r="I13">
-        <v>35.726</v>
+        <v>31.571</v>
       </c>
       <c r="J13" t="s">
         <v>56</v>
       </c>
       <c r="K13">
-        <v>0.485</v>
+        <v>0.365</v>
       </c>
       <c r="N13" t="s">
         <v>67</v>
       </c>
       <c r="O13">
-        <v>-0.15</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1740,19 +1740,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.399</v>
+        <v>-0.189</v>
       </c>
       <c r="I14">
-        <v>27.398</v>
+        <v>31.889</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
       </c>
       <c r="K14">
-        <v>0.173</v>
+        <v>0.851</v>
       </c>
       <c r="L14">
-        <v>0.866</v>
+        <v>0.851</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -1761,7 +1761,7 @@
         <v>68</v>
       </c>
       <c r="O14">
-        <v>-0.464</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1787,19 +1787,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-0.854</v>
+        <v>-0.923</v>
       </c>
       <c r="I15">
-        <v>33.112</v>
+        <v>34.679</v>
       </c>
       <c r="J15" t="s">
         <v>56</v>
       </c>
       <c r="K15">
-        <v>0.399</v>
+        <v>0.362</v>
       </c>
       <c r="L15">
-        <v>0.947</v>
+        <v>0.805</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
@@ -1808,7 +1808,7 @@
         <v>69</v>
       </c>
       <c r="O15">
-        <v>-0.198</v>
+        <v>-0.174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1834,19 +1834,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.575</v>
+        <v>-1.375</v>
       </c>
       <c r="I16">
-        <v>45.843</v>
+        <v>34.618</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
       </c>
       <c r="K16">
-        <v>0.5679999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="L16">
-        <v>0.947</v>
+        <v>0.805</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
@@ -1855,7 +1855,7 @@
         <v>70</v>
       </c>
       <c r="O16">
-        <v>-0.099</v>
+        <v>-0.259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1881,19 +1881,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.271</v>
+        <v>-0.709</v>
       </c>
       <c r="I17">
-        <v>48.856</v>
+        <v>32.866</v>
       </c>
       <c r="J17" t="s">
         <v>56</v>
       </c>
       <c r="K17">
-        <v>0.787</v>
+        <v>0.483</v>
       </c>
       <c r="L17">
-        <v>0.984</v>
+        <v>0.805</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -1902,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="O17">
-        <v>0.045</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1928,19 +1928,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.003</v>
+        <v>-0.392</v>
       </c>
       <c r="I18">
-        <v>38.831</v>
+        <v>28.066</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
       </c>
       <c r="K18">
-        <v>0.997</v>
+        <v>0.698</v>
       </c>
       <c r="L18">
-        <v>0.997</v>
+        <v>0.851</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -1949,7 +1949,7 @@
         <v>72</v>
       </c>
       <c r="O18">
-        <v>0.001</v>
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
